--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/47_Kayseri_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/47_Kayseri_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4C7E9A-7698-4441-940F-7762555054ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F11E4F6F-293C-4294-A7A2-4ED0E64D86BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{87803EFD-7E7D-4FF4-A638-9D4188EE0D96}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{96B8E32D-AA49-4E11-B19B-C61791DE7E3F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9334BB9E-67EF-4603-ABB8-512CD689EB22}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F147B3BB-BC02-4C66-9DAB-311271A7E8D6}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{F3FD21AB-CFD9-49CE-A0BD-60142FD663B1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{32367BDD-AA58-4C4F-9F99-14B65222D963}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{7324AB24-ECEB-4EE9-909F-D1E3FE507D6E}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{254AEC5C-3C69-4A77-97CF-E550139FEDDF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{C893D990-BBCB-4475-8B2F-C11C4401E5B7}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3BE2C22D-B56E-4535-B31E-66DB7E55A39A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{95599348-0736-43D4-ADCE-120F94620334}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A2E25937-7E48-4064-87E1-94C90864A305}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C0EBB379-17BF-444D-A9D3-E06C6A5582C2}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8412C785-BBD6-4806-A364-D9576E787F15}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{9D879400-6592-4691-B36E-65423D8BAB5F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{E8739A27-32C7-4D80-B146-80B2579F1C43}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93FFA74-ED27-4D2A-8519-4DAAEACD36A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F350EF5B-E615-476A-97E7-50CC7B8BC8C0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2609,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C723896-C930-4CDF-A3C5-D38B3751DAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F5CA4C-C4CC-42CE-A806-EC09B0F81DC4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3886,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C10FE4-4F99-406D-8F55-3966845831F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B645268-AFC5-4D42-811A-8D7FBC81C6F4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5151,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D442F2F-AF87-4742-A747-3E94284C0917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5243A5-7322-4C84-86E3-0029D730C599}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6412,7 +6412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D4D46C-942A-41BD-9F47-C2F2DA959BA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B700F611-CEB8-4DC6-9BD7-7C862319BB22}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7729,7 +7729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD40591-5FFF-4C10-BDC7-8909077BCDC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA820C78-F404-4838-927C-A0AF61446DCE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9046,7 +9046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E6D92E-3F6A-40A6-B604-FBDBEDABCEE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB36DFC-6E8C-4399-B014-9D9E9E5E38D5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10363,7 +10363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BA84A5-5C01-4DE9-BEBF-49C02F17D940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4B8D78-8F05-41D2-A6C4-1CA71C706E31}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11680,7 +11680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D0FB70-ED42-4EE5-A29B-3B4848C1FF14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E919C67F-0058-4C96-8226-912531ACC75D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12997,7 +12997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D53E0F1-3C25-4489-A773-EDDF89566488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5569A8-691D-4551-9E65-4C13EDA9933D}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14302,7 +14302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41E69AE-B5B9-468D-9AA9-13A7A6C7616F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CC4F7F-56B4-4F93-83EB-8C24B3FA1707}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15607,7 +15607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C993DCF4-CF75-4CC0-B8F3-2A6CAEF2658A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B383E53A-B38C-4EFC-A39E-526F3B1166E7}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
